--- a/TBN_VertebrateList_xlsx/protected_species_list_TBN.xlsx
+++ b/TBN_VertebrateList_xlsx/protected_species_list_TBN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\物種名錄\保育類野生動物名錄\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\TBN_VertebrateList\TBN_VertebrateList_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3008,37 +3008,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3497,9 +3467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -3622,9 +3590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D247" sqref="D1:D1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -12452,58 +12418,58 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J192">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J193">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J205">
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J208">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J212">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J213">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J219">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J229">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J222">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J232">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J230">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J234">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J235">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J236">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J250">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J248">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J252">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J254:J277">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TBN_VertebrateList_xlsx/protected_species_list_TBN.xlsx
+++ b/TBN_VertebrateList_xlsx/protected_species_list_TBN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="欄位說明" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="926">
   <si>
     <t>tp_tid</t>
   </si>
@@ -2107,22 +2107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>林務局保育類名錄使用學名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林務局保育類名錄使用中文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBN的uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林務局保育類名錄編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保育等級版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2159,10 +2143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBN的tp_tid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>taibnet_namecode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2187,14 +2167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>林務局保育類名錄使用學名的分類階層</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank_PSL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>protected_status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2898,7 +2870,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>林務局保育類名錄使用中文名備註</t>
+    <t>保育類名錄學名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保育類名錄中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保育類名錄中文名備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBN物種識別碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣物種名錄(TaiCoL)物種識別碼</t>
+  </si>
+  <si>
+    <t>TBN使用之流水號</t>
+  </si>
+  <si>
+    <t>保育類名錄編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保育類名錄分類階層</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank_PSL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2906,7 +2908,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2946,6 +2948,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2975,7 +2985,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2998,12 +3008,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -3467,116 +3480,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B1" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>680</v>
       </c>
       <c r="B2" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>679</v>
       </c>
       <c r="B3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>915</v>
+      </c>
+      <c r="B4" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="B7" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B8" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B9" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>693</v>
+      </c>
+      <c r="B10" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B11" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>922</v>
-      </c>
-      <c r="B4" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>705</v>
-      </c>
-      <c r="B5" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>700</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B13" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>685</v>
+      </c>
+      <c r="B14" t="s">
         <v>686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="B7" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B9" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>698</v>
-      </c>
-      <c r="B10" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B11" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="B13" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>689</v>
-      </c>
-      <c r="B14" t="s">
-        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -3590,9 +3603,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.375" customWidth="1"/>
@@ -3606,42 +3619,42 @@
     <col min="10" max="10" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>680</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>921</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="C1" s="12" t="s">
+        <v>914</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="12" t="s">
         <v>652</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="K1" s="14" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -3649,16 +3662,16 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="D2" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="E2" t="s">
         <v>502</v>
       </c>
       <c r="F2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G2">
         <v>416105</v>
@@ -3676,7 +3689,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>209</v>
       </c>
@@ -3690,7 +3703,7 @@
         <v>503</v>
       </c>
       <c r="F3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G3">
         <v>1024882</v>
@@ -3706,7 +3719,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>199</v>
       </c>
@@ -3714,16 +3727,16 @@
         <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D4" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="E4" t="s">
         <v>502</v>
       </c>
       <c r="F4" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G4">
         <v>1024484</v>
@@ -3739,7 +3752,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -3753,7 +3766,7 @@
         <v>503</v>
       </c>
       <c r="F5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G5">
         <v>1024697</v>
@@ -3769,7 +3782,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>206</v>
       </c>
@@ -3783,7 +3796,7 @@
         <v>502</v>
       </c>
       <c r="F6" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G6">
         <v>1024735</v>
@@ -3799,7 +3812,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>248</v>
       </c>
@@ -3813,7 +3826,7 @@
         <v>503</v>
       </c>
       <c r="F7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G7">
         <v>1025759</v>
@@ -3829,7 +3842,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>249</v>
       </c>
@@ -3843,7 +3856,7 @@
         <v>501</v>
       </c>
       <c r="F8" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G8">
         <v>1025768</v>
@@ -3859,7 +3872,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>186</v>
       </c>
@@ -3873,7 +3886,7 @@
         <v>501</v>
       </c>
       <c r="F9" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G9">
         <v>1023992</v>
@@ -3889,7 +3902,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -3897,16 +3910,16 @@
         <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="D10" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="E10" t="s">
         <v>501</v>
       </c>
       <c r="F10" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G10" s="1">
         <v>1024731</v>
@@ -3919,12 +3932,12 @@
         <v>188</v>
       </c>
       <c r="K10" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -3938,7 +3951,7 @@
         <v>501</v>
       </c>
       <c r="F11" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G11">
         <v>380580</v>
@@ -3956,7 +3969,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3970,7 +3983,7 @@
         <v>501</v>
       </c>
       <c r="F12" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G12">
         <v>380056</v>
@@ -3988,7 +4001,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3996,16 +4009,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D13" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="E13" t="s">
         <v>501</v>
       </c>
       <c r="F13" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G13">
         <v>380062</v>
@@ -4023,7 +4036,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4037,7 +4050,7 @@
         <v>501</v>
       </c>
       <c r="F14" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G14">
         <v>380074</v>
@@ -4055,7 +4068,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -4063,13 +4076,13 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="E15" t="s">
         <v>502</v>
       </c>
       <c r="F15" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G15">
         <v>380162</v>
@@ -4087,7 +4100,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -4095,16 +4108,16 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D16" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="E16" t="s">
         <v>501</v>
       </c>
       <c r="F16" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G16">
         <v>380163</v>
@@ -4122,7 +4135,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>145</v>
       </c>
@@ -4136,7 +4149,7 @@
         <v>501</v>
       </c>
       <c r="F17" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G17">
         <v>420867</v>
@@ -4154,7 +4167,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>183</v>
       </c>
@@ -4168,7 +4181,7 @@
         <v>502</v>
       </c>
       <c r="F18" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G18">
         <v>1023790</v>
@@ -4184,7 +4197,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>201</v>
       </c>
@@ -4198,7 +4211,7 @@
         <v>502</v>
       </c>
       <c r="F19" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G19">
         <v>1024659</v>
@@ -4214,7 +4227,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -4228,7 +4241,7 @@
         <v>502</v>
       </c>
       <c r="F20" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G20">
         <v>380230</v>
@@ -4246,7 +4259,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>213</v>
       </c>
@@ -4254,16 +4267,16 @@
         <v>213</v>
       </c>
       <c r="C21" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D21" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="E21" t="s">
         <v>502</v>
       </c>
       <c r="F21" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G21">
         <v>1024943</v>
@@ -4279,7 +4292,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4293,7 +4306,7 @@
         <v>502</v>
       </c>
       <c r="F22" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G22">
         <v>380236</v>
@@ -4311,7 +4324,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -4325,7 +4338,7 @@
         <v>503</v>
       </c>
       <c r="F23" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G23">
         <v>380248</v>
@@ -4343,7 +4356,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4357,7 +4370,7 @@
         <v>502</v>
       </c>
       <c r="F24" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G24">
         <v>380222</v>
@@ -4375,7 +4388,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>246</v>
       </c>
@@ -4389,7 +4402,7 @@
         <v>502</v>
       </c>
       <c r="F25" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G25">
         <v>1025729</v>
@@ -4405,7 +4418,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -4419,7 +4432,7 @@
         <v>501</v>
       </c>
       <c r="F26" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G26">
         <v>380128</v>
@@ -4437,7 +4450,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -4451,7 +4464,7 @@
         <v>502</v>
       </c>
       <c r="F27" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G27">
         <v>380132</v>
@@ -4469,7 +4482,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>111</v>
       </c>
@@ -4483,7 +4496,7 @@
         <v>503</v>
       </c>
       <c r="F28" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G28">
         <v>404565</v>
@@ -4501,7 +4514,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -4515,7 +4528,7 @@
         <v>501</v>
       </c>
       <c r="F29" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G29">
         <v>380153</v>
@@ -4533,7 +4546,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -4541,13 +4554,13 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="E30" t="s">
         <v>503</v>
       </c>
       <c r="F30" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G30">
         <v>380257</v>
@@ -4565,7 +4578,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>231</v>
       </c>
@@ -4579,7 +4592,7 @@
         <v>501</v>
       </c>
       <c r="F31" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G31">
         <v>1025242</v>
@@ -4595,7 +4608,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -4609,7 +4622,7 @@
         <v>503</v>
       </c>
       <c r="F32" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G32">
         <v>380259</v>
@@ -4627,7 +4640,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -4635,13 +4648,13 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="E33" t="s">
         <v>501</v>
       </c>
       <c r="F33" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G33">
         <v>380260</v>
@@ -4659,7 +4672,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>244</v>
       </c>
@@ -4673,7 +4686,7 @@
         <v>501</v>
       </c>
       <c r="F34" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G34">
         <v>1025693</v>
@@ -4689,7 +4702,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>204</v>
       </c>
@@ -4703,7 +4716,7 @@
         <v>502</v>
       </c>
       <c r="F35" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G35">
         <v>1024716</v>
@@ -4719,7 +4732,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>169</v>
       </c>
@@ -4733,7 +4746,7 @@
         <v>501</v>
       </c>
       <c r="F36" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G36">
         <v>1023423</v>
@@ -4749,7 +4762,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>170</v>
       </c>
@@ -4763,7 +4776,7 @@
         <v>501</v>
       </c>
       <c r="F37" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G37">
         <v>1023424</v>
@@ -4779,7 +4792,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -4793,7 +4806,7 @@
         <v>501</v>
       </c>
       <c r="F38" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G38">
         <v>380099</v>
@@ -4811,7 +4824,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>171</v>
       </c>
@@ -4825,7 +4838,7 @@
         <v>501</v>
       </c>
       <c r="F39" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G39">
         <v>1023425</v>
@@ -4841,7 +4854,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>172</v>
       </c>
@@ -4849,16 +4862,16 @@
         <v>172</v>
       </c>
       <c r="C40" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D40" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="E40" t="s">
         <v>501</v>
       </c>
       <c r="F40" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G40">
         <v>1023426</v>
@@ -4874,7 +4887,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -4882,16 +4895,16 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="D41" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="E41" t="s">
         <v>501</v>
       </c>
       <c r="F41" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G41">
         <v>380105</v>
@@ -4909,7 +4922,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>184</v>
       </c>
@@ -4917,16 +4930,16 @@
         <v>184</v>
       </c>
       <c r="C42" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="D42" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="E42" t="s">
         <v>501</v>
       </c>
       <c r="F42" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G42">
         <v>1023965</v>
@@ -4942,7 +4955,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -4950,16 +4963,16 @@
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D43" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="E43" t="s">
         <v>501</v>
       </c>
       <c r="F43" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G43">
         <v>380109</v>
@@ -4977,7 +4990,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>185</v>
       </c>
@@ -4985,16 +4998,16 @@
         <v>185</v>
       </c>
       <c r="C44" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="D44" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="E44" t="s">
         <v>501</v>
       </c>
       <c r="F44" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G44">
         <v>1023966</v>
@@ -5010,7 +5023,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>189</v>
       </c>
@@ -5024,7 +5037,7 @@
         <v>501</v>
       </c>
       <c r="F45" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G45">
         <v>1024209</v>
@@ -5040,7 +5053,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>147</v>
       </c>
@@ -5054,7 +5067,7 @@
         <v>503</v>
       </c>
       <c r="F46" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G46">
         <v>421135</v>
@@ -5072,7 +5085,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>207</v>
       </c>
@@ -5080,16 +5093,16 @@
         <v>207</v>
       </c>
       <c r="C47" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="D47" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="E47" t="s">
         <v>501</v>
       </c>
       <c r="F47" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G47">
         <v>1024812</v>
@@ -5105,7 +5118,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>223</v>
       </c>
@@ -5119,7 +5132,7 @@
         <v>501</v>
       </c>
       <c r="F48" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G48">
         <v>1025068</v>
@@ -5135,7 +5148,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>227</v>
       </c>
@@ -5143,16 +5156,16 @@
         <v>227</v>
       </c>
       <c r="C49" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="D49" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="E49" t="s">
         <v>501</v>
       </c>
       <c r="F49" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G49">
         <v>1025168</v>
@@ -5168,7 +5181,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>235</v>
       </c>
@@ -5182,7 +5195,7 @@
         <v>501</v>
       </c>
       <c r="F50" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G50">
         <v>1025516</v>
@@ -5198,7 +5211,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>212</v>
       </c>
@@ -5206,16 +5219,16 @@
         <v>212</v>
       </c>
       <c r="C51" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="D51" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="E51" t="s">
         <v>503</v>
       </c>
       <c r="F51" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G51">
         <v>1024929</v>
@@ -5231,7 +5244,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>193</v>
       </c>
@@ -5239,16 +5252,16 @@
         <v>193</v>
       </c>
       <c r="C52" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="D52" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="E52" t="s">
         <v>501</v>
       </c>
       <c r="F52" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G52">
         <v>1024354</v>
@@ -5264,7 +5277,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -5278,7 +5291,7 @@
         <v>501</v>
       </c>
       <c r="F53" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G53">
         <v>1024355</v>
@@ -5294,7 +5307,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>195</v>
       </c>
@@ -5308,7 +5321,7 @@
         <v>501</v>
       </c>
       <c r="F54" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G54">
         <v>1024356</v>
@@ -5324,7 +5337,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -5332,16 +5345,16 @@
         <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D55" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="E55" t="s">
         <v>502</v>
       </c>
       <c r="F55" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G55">
         <v>380285</v>
@@ -5359,7 +5372,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>31</v>
       </c>
@@ -5373,7 +5386,7 @@
         <v>501</v>
       </c>
       <c r="F56" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G56">
         <v>380289</v>
@@ -5391,7 +5404,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>228</v>
       </c>
@@ -5405,7 +5418,7 @@
         <v>501</v>
       </c>
       <c r="F57" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G57">
         <v>1025193</v>
@@ -5421,7 +5434,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -5435,7 +5448,7 @@
         <v>503</v>
       </c>
       <c r="F58" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G58">
         <v>380293</v>
@@ -5453,7 +5466,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -5467,7 +5480,7 @@
         <v>503</v>
       </c>
       <c r="F59" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G59">
         <v>380294</v>
@@ -5485,7 +5498,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>35</v>
       </c>
@@ -5499,7 +5512,7 @@
         <v>502</v>
       </c>
       <c r="F60" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G60">
         <v>380298</v>
@@ -5517,7 +5530,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>187</v>
       </c>
@@ -5531,7 +5544,7 @@
         <v>501</v>
       </c>
       <c r="F61" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G61">
         <v>1024015</v>
@@ -5547,7 +5560,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -5561,7 +5574,7 @@
         <v>502</v>
       </c>
       <c r="F62" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G62">
         <v>380336</v>
@@ -5579,7 +5592,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -5587,16 +5600,16 @@
         <v>655</v>
       </c>
       <c r="C63" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="D63" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="E63" t="s">
         <v>501</v>
       </c>
       <c r="F63" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G63">
         <v>404581</v>
@@ -5614,7 +5627,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>190</v>
       </c>
@@ -5622,13 +5635,13 @@
         <v>190</v>
       </c>
       <c r="C64" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="E64" t="s">
         <v>501</v>
       </c>
       <c r="F64" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G64">
         <v>1024219</v>
@@ -5644,7 +5657,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>202</v>
       </c>
@@ -5658,7 +5671,7 @@
         <v>502</v>
       </c>
       <c r="F65" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G65">
         <v>1024676</v>
@@ -5674,7 +5687,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>150</v>
       </c>
@@ -5688,7 +5701,7 @@
         <v>502</v>
       </c>
       <c r="F66" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G66">
         <v>425192</v>
@@ -5706,7 +5719,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>232</v>
       </c>
@@ -5720,7 +5733,7 @@
         <v>502</v>
       </c>
       <c r="F67" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G67">
         <v>1025318</v>
@@ -5736,7 +5749,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>200</v>
       </c>
@@ -5750,7 +5763,7 @@
         <v>502</v>
       </c>
       <c r="F68" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G68">
         <v>1024598</v>
@@ -5766,7 +5779,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>40</v>
       </c>
@@ -5780,7 +5793,7 @@
         <v>502</v>
       </c>
       <c r="F69" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G69">
         <v>380455</v>
@@ -5798,7 +5811,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>196</v>
       </c>
@@ -5812,7 +5825,7 @@
         <v>501</v>
       </c>
       <c r="F70" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G70">
         <v>1024395</v>
@@ -5828,7 +5841,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>115</v>
       </c>
@@ -5842,7 +5855,7 @@
         <v>501</v>
       </c>
       <c r="F71" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G71">
         <v>404589</v>
@@ -5860,7 +5873,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>159</v>
       </c>
@@ -5868,16 +5881,16 @@
         <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="D72" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="E72" t="s">
         <v>501</v>
       </c>
       <c r="F72" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G72">
         <v>428597</v>
@@ -5895,7 +5908,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>158</v>
       </c>
@@ -5903,16 +5916,16 @@
         <v>158</v>
       </c>
       <c r="C73" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="D73" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="E73" t="s">
         <v>501</v>
       </c>
       <c r="F73" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G73">
         <v>428595</v>
@@ -5930,7 +5943,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -5944,7 +5957,7 @@
         <v>502</v>
       </c>
       <c r="F74" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G74">
         <v>380468</v>
@@ -5962,7 +5975,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -5976,7 +5989,7 @@
         <v>502</v>
       </c>
       <c r="F75" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G75">
         <v>380467</v>
@@ -5994,7 +6007,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>242</v>
       </c>
@@ -6002,16 +6015,16 @@
         <v>242</v>
       </c>
       <c r="C76" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="D76" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="E76" t="s">
         <v>501</v>
       </c>
       <c r="F76" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G76">
         <v>1025642</v>
@@ -6027,7 +6040,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>191</v>
       </c>
@@ -6041,7 +6054,7 @@
         <v>501</v>
       </c>
       <c r="F77" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G77">
         <v>1024234</v>
@@ -6057,7 +6070,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>210</v>
       </c>
@@ -6071,7 +6084,7 @@
         <v>502</v>
       </c>
       <c r="F78" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G78">
         <v>1024921</v>
@@ -6087,7 +6100,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>229</v>
       </c>
@@ -6101,7 +6114,7 @@
         <v>502</v>
       </c>
       <c r="F79" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G79">
         <v>1025204</v>
@@ -6117,7 +6130,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -6131,7 +6144,7 @@
         <v>502</v>
       </c>
       <c r="F80" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G80">
         <v>1025629</v>
@@ -6147,7 +6160,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>142</v>
       </c>
@@ -6161,7 +6174,7 @@
         <v>502</v>
       </c>
       <c r="F81" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G81">
         <v>419684</v>
@@ -6179,7 +6192,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>215</v>
       </c>
@@ -6193,7 +6206,7 @@
         <v>501</v>
       </c>
       <c r="F82" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G82">
         <v>1025011</v>
@@ -6209,7 +6222,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>216</v>
       </c>
@@ -6223,7 +6236,7 @@
         <v>501</v>
       </c>
       <c r="F83" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G83">
         <v>1025012</v>
@@ -6239,7 +6252,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>224</v>
       </c>
@@ -6247,16 +6260,16 @@
         <v>224</v>
       </c>
       <c r="C84" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="D84" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="E84" t="s">
         <v>502</v>
       </c>
       <c r="F84" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G84">
         <v>1025134</v>
@@ -6272,7 +6285,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>226</v>
       </c>
@@ -6286,7 +6299,7 @@
         <v>502</v>
       </c>
       <c r="F85" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G85">
         <v>1025162</v>
@@ -6302,7 +6315,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>163</v>
       </c>
@@ -6316,7 +6329,7 @@
         <v>501</v>
       </c>
       <c r="F86" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G86">
         <v>432166</v>
@@ -6334,7 +6347,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>225</v>
       </c>
@@ -6348,7 +6361,7 @@
         <v>505</v>
       </c>
       <c r="F87" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G87">
         <v>1025140</v>
@@ -6364,7 +6377,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>37</v>
       </c>
@@ -6372,16 +6385,16 @@
         <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="D88" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="E88" t="s">
         <v>501</v>
       </c>
       <c r="F88" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G88">
         <v>380436</v>
@@ -6399,7 +6412,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>38</v>
       </c>
@@ -6413,7 +6426,7 @@
         <v>501</v>
       </c>
       <c r="F89" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G89">
         <v>380440</v>
@@ -6431,7 +6444,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>39</v>
       </c>
@@ -6439,16 +6452,16 @@
         <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="D90" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="E90" t="s">
         <v>502</v>
       </c>
       <c r="F90" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G90">
         <v>380442</v>
@@ -6466,7 +6479,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -6480,7 +6493,7 @@
         <v>501</v>
       </c>
       <c r="F91" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G91">
         <v>1023443</v>
@@ -6496,7 +6509,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>140</v>
       </c>
@@ -6510,7 +6523,7 @@
         <v>501</v>
       </c>
       <c r="F92" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G92">
         <v>419446</v>
@@ -6528,7 +6541,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>119</v>
       </c>
@@ -6536,16 +6549,16 @@
         <v>119</v>
       </c>
       <c r="C93" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="D93" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="E93" t="s">
         <v>502</v>
       </c>
       <c r="F93" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G93">
         <v>404634</v>
@@ -6563,7 +6576,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>166</v>
       </c>
@@ -6577,7 +6590,7 @@
         <v>501</v>
       </c>
       <c r="F94" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G94">
         <v>432360</v>
@@ -6595,7 +6608,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>131</v>
       </c>
@@ -6609,7 +6622,7 @@
         <v>501</v>
       </c>
       <c r="F95" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G95">
         <v>417886</v>
@@ -6627,7 +6640,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>245</v>
       </c>
@@ -6641,7 +6654,7 @@
         <v>501</v>
       </c>
       <c r="F96" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G96">
         <v>1025725</v>
@@ -6657,7 +6670,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>43</v>
       </c>
@@ -6671,7 +6684,7 @@
         <v>502</v>
       </c>
       <c r="F97" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G97">
         <v>380486</v>
@@ -6689,7 +6702,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>188</v>
       </c>
@@ -6703,7 +6716,7 @@
         <v>501</v>
       </c>
       <c r="F98" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G98">
         <v>1024117</v>
@@ -6719,7 +6732,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>230</v>
       </c>
@@ -6733,7 +6746,7 @@
         <v>501</v>
       </c>
       <c r="F99" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G99">
         <v>1025227</v>
@@ -6749,7 +6762,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>136</v>
       </c>
@@ -6763,7 +6776,7 @@
         <v>501</v>
       </c>
       <c r="F100" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G100">
         <v>419413</v>
@@ -6781,7 +6794,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>137</v>
       </c>
@@ -6795,7 +6808,7 @@
         <v>501</v>
       </c>
       <c r="F101" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G101">
         <v>419414</v>
@@ -6813,7 +6826,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>138</v>
       </c>
@@ -6827,7 +6840,7 @@
         <v>503</v>
       </c>
       <c r="F102" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G102">
         <v>419415</v>
@@ -6845,7 +6858,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>139</v>
       </c>
@@ -6859,7 +6872,7 @@
         <v>503</v>
       </c>
       <c r="F103" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G103">
         <v>419416</v>
@@ -6877,7 +6890,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>132</v>
       </c>
@@ -6891,7 +6904,7 @@
         <v>501</v>
       </c>
       <c r="F104" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G104">
         <v>417958</v>
@@ -6909,7 +6922,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>129</v>
       </c>
@@ -6923,7 +6936,7 @@
         <v>503</v>
       </c>
       <c r="F105" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G105">
         <v>417808</v>
@@ -6941,7 +6954,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>176</v>
       </c>
@@ -6955,7 +6968,7 @@
         <v>501</v>
       </c>
       <c r="F106" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G106">
         <v>1023655</v>
@@ -6971,7 +6984,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>177</v>
       </c>
@@ -6985,7 +6998,7 @@
         <v>501</v>
       </c>
       <c r="F107" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G107">
         <v>1023656</v>
@@ -7001,7 +7014,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>197</v>
       </c>
@@ -7015,7 +7028,7 @@
         <v>501</v>
       </c>
       <c r="F108" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G108">
         <v>1024414</v>
@@ -7031,7 +7044,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>44</v>
       </c>
@@ -7045,7 +7058,7 @@
         <v>501</v>
       </c>
       <c r="F109" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G109">
         <v>380500</v>
@@ -7063,7 +7076,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>211</v>
       </c>
@@ -7077,7 +7090,7 @@
         <v>501</v>
       </c>
       <c r="F110" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G110">
         <v>1024923</v>
@@ -7093,7 +7106,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>219</v>
       </c>
@@ -7107,7 +7120,7 @@
         <v>501</v>
       </c>
       <c r="F111" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G111">
         <v>1025028</v>
@@ -7123,7 +7136,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>220</v>
       </c>
@@ -7137,7 +7150,7 @@
         <v>501</v>
       </c>
       <c r="F112" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G112">
         <v>1025029</v>
@@ -7153,7 +7166,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>221</v>
       </c>
@@ -7167,7 +7180,7 @@
         <v>501</v>
       </c>
       <c r="F113" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G113">
         <v>1025030</v>
@@ -7183,7 +7196,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>239</v>
       </c>
@@ -7197,7 +7210,7 @@
         <v>501</v>
       </c>
       <c r="F114" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G114">
         <v>1025563</v>
@@ -7213,7 +7226,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>240</v>
       </c>
@@ -7221,16 +7234,16 @@
         <v>240</v>
       </c>
       <c r="C115" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="D115" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="E115" t="s">
         <v>501</v>
       </c>
       <c r="F115" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G115">
         <v>1025564</v>
@@ -7243,10 +7256,10 @@
         <v>581</v>
       </c>
       <c r="K115" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>247</v>
       </c>
@@ -7260,7 +7273,7 @@
         <v>503</v>
       </c>
       <c r="F116" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G116">
         <v>1025744</v>
@@ -7276,7 +7289,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>80</v>
       </c>
@@ -7290,7 +7303,7 @@
         <v>501</v>
       </c>
       <c r="F117" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G117">
         <v>380622</v>
@@ -7308,7 +7321,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>81</v>
       </c>
@@ -7322,7 +7335,7 @@
         <v>501</v>
       </c>
       <c r="F118" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G118">
         <v>380623</v>
@@ -7340,7 +7353,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>82</v>
       </c>
@@ -7348,16 +7361,16 @@
         <v>82</v>
       </c>
       <c r="C119" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="D119" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="E119" t="s">
         <v>501</v>
       </c>
       <c r="F119" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G119">
         <v>380627</v>
@@ -7375,7 +7388,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>89</v>
       </c>
@@ -7383,16 +7396,16 @@
         <v>89</v>
       </c>
       <c r="C120" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="D120" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="E120" t="s">
         <v>501</v>
       </c>
       <c r="F120" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G120">
         <v>380667</v>
@@ -7410,7 +7423,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>90</v>
       </c>
@@ -7418,16 +7431,16 @@
         <v>90</v>
       </c>
       <c r="C121" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="D121" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="E121" t="s">
         <v>501</v>
       </c>
       <c r="F121" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G121">
         <v>380674</v>
@@ -7445,7 +7458,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>91</v>
       </c>
@@ -7453,16 +7466,16 @@
         <v>91</v>
       </c>
       <c r="C122" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="D122" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="E122" t="s">
         <v>502</v>
       </c>
       <c r="F122" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G122">
         <v>380686</v>
@@ -7480,7 +7493,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>83</v>
       </c>
@@ -7494,7 +7507,7 @@
         <v>503</v>
       </c>
       <c r="F123" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G123">
         <v>380630</v>
@@ -7512,7 +7525,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>153</v>
       </c>
@@ -7526,7 +7539,7 @@
         <v>502</v>
       </c>
       <c r="F124" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G124">
         <v>427266</v>
@@ -7544,7 +7557,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>84</v>
       </c>
@@ -7558,7 +7571,7 @@
         <v>504</v>
       </c>
       <c r="F125" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G125">
         <v>380642</v>
@@ -7576,7 +7589,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>86</v>
       </c>
@@ -7590,7 +7603,7 @@
         <v>502</v>
       </c>
       <c r="F126" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G126">
         <v>380654</v>
@@ -7608,7 +7621,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>87</v>
       </c>
@@ -7622,7 +7635,7 @@
         <v>501</v>
       </c>
       <c r="F127" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G127">
         <v>380657</v>
@@ -7640,7 +7653,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>88</v>
       </c>
@@ -7654,7 +7667,7 @@
         <v>502</v>
       </c>
       <c r="F128" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G128">
         <v>380659</v>
@@ -7672,7 +7685,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -7686,7 +7699,7 @@
         <v>501</v>
       </c>
       <c r="F129" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G129">
         <v>421733</v>
@@ -7704,7 +7717,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>234</v>
       </c>
@@ -7718,7 +7731,7 @@
         <v>502</v>
       </c>
       <c r="F130" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G130">
         <v>1025481</v>
@@ -7734,7 +7747,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>149</v>
       </c>
@@ -7742,16 +7755,16 @@
         <v>149</v>
       </c>
       <c r="C131" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="D131" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="E131" t="s">
         <v>501</v>
       </c>
       <c r="F131" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G131">
         <v>421735</v>
@@ -7769,7 +7782,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -7783,7 +7796,7 @@
         <v>501</v>
       </c>
       <c r="F132" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G132">
         <v>418194</v>
@@ -7801,7 +7814,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -7815,7 +7828,7 @@
         <v>501</v>
       </c>
       <c r="F133" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G133">
         <v>427241</v>
@@ -7833,7 +7846,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>92</v>
       </c>
@@ -7847,7 +7860,7 @@
         <v>501</v>
       </c>
       <c r="F134" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G134">
         <v>380702</v>
@@ -7865,7 +7878,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>222</v>
       </c>
@@ -7873,16 +7886,16 @@
         <v>222</v>
       </c>
       <c r="C135" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="D135" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="E135" t="s">
         <v>501</v>
       </c>
       <c r="F135" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G135">
         <v>1025036</v>
@@ -7898,7 +7911,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>93</v>
       </c>
@@ -7912,7 +7925,7 @@
         <v>502</v>
       </c>
       <c r="F136" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G136">
         <v>380704</v>
@@ -7930,7 +7943,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>73</v>
       </c>
@@ -7944,7 +7957,7 @@
         <v>503</v>
       </c>
       <c r="F137" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G137">
         <v>380611</v>
@@ -7962,7 +7975,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>127</v>
       </c>
@@ -7976,7 +7989,7 @@
         <v>501</v>
       </c>
       <c r="F138" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G138">
         <v>417641</v>
@@ -7994,7 +8007,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>74</v>
       </c>
@@ -8008,7 +8021,7 @@
         <v>503</v>
       </c>
       <c r="F139" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G139">
         <v>380612</v>
@@ -8026,7 +8039,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>72</v>
       </c>
@@ -8040,7 +8053,7 @@
         <v>501</v>
       </c>
       <c r="F140" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G140">
         <v>380610</v>
@@ -8058,7 +8071,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>125</v>
       </c>
@@ -8072,7 +8085,7 @@
         <v>501</v>
       </c>
       <c r="F141" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G141">
         <v>416138</v>
@@ -8090,7 +8103,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>126</v>
       </c>
@@ -8104,7 +8117,7 @@
         <v>501</v>
       </c>
       <c r="F142" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G142">
         <v>416658</v>
@@ -8122,7 +8135,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -8136,7 +8149,7 @@
         <v>502</v>
       </c>
       <c r="F143" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G143">
         <v>418420</v>
@@ -8154,7 +8167,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -8168,7 +8181,7 @@
         <v>501</v>
       </c>
       <c r="F144" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G144">
         <v>380048</v>
@@ -8186,7 +8199,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -8200,7 +8213,7 @@
         <v>501</v>
       </c>
       <c r="F145" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G145">
         <v>380049</v>
@@ -8218,7 +8231,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -8232,7 +8245,7 @@
         <v>502</v>
       </c>
       <c r="F146" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G146">
         <v>380051</v>
@@ -8250,7 +8263,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -8264,7 +8277,7 @@
         <v>502</v>
       </c>
       <c r="F147" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G147">
         <v>380052</v>
@@ -8282,7 +8295,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -8296,7 +8309,7 @@
         <v>501</v>
       </c>
       <c r="F148" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G148">
         <v>380053</v>
@@ -8314,7 +8327,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -8328,7 +8341,7 @@
         <v>503</v>
       </c>
       <c r="F149" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G149">
         <v>380054</v>
@@ -8346,7 +8359,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>120</v>
       </c>
@@ -8360,7 +8373,7 @@
         <v>503</v>
       </c>
       <c r="F150" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G150">
         <v>413087</v>
@@ -8378,7 +8391,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>121</v>
       </c>
@@ -8392,7 +8405,7 @@
         <v>503</v>
       </c>
       <c r="F151" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G151">
         <v>413088</v>
@@ -8410,7 +8423,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -8424,7 +8437,7 @@
         <v>503</v>
       </c>
       <c r="F152" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G152">
         <v>380055</v>
@@ -8442,7 +8455,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>94</v>
       </c>
@@ -8456,7 +8469,7 @@
         <v>501</v>
       </c>
       <c r="F153" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G153">
         <v>380992</v>
@@ -8474,7 +8487,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>104</v>
       </c>
@@ -8488,7 +8501,7 @@
         <v>502</v>
       </c>
       <c r="F154" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G154">
         <v>383544</v>
@@ -8506,7 +8519,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>95</v>
       </c>
@@ -8520,7 +8533,7 @@
         <v>502</v>
       </c>
       <c r="F155" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G155">
         <v>380993</v>
@@ -8538,7 +8551,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>97</v>
       </c>
@@ -8546,16 +8559,16 @@
         <v>656</v>
       </c>
       <c r="C156" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="D156" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="E156" t="s">
         <v>502</v>
       </c>
       <c r="F156" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G156">
         <v>381023</v>
@@ -8573,7 +8586,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>98</v>
       </c>
@@ -8581,13 +8594,13 @@
         <v>657</v>
       </c>
       <c r="C157" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="E157" t="s">
         <v>502</v>
       </c>
       <c r="F157" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G157">
         <v>381024</v>
@@ -8605,7 +8618,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>96</v>
       </c>
@@ -8613,16 +8626,16 @@
         <v>96</v>
       </c>
       <c r="C158" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="D158" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="E158" t="s">
         <v>501</v>
       </c>
       <c r="F158" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G158">
         <v>381020</v>
@@ -8640,7 +8653,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>109</v>
       </c>
@@ -8654,7 +8667,7 @@
         <v>503</v>
       </c>
       <c r="F159" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G159">
         <v>395247</v>
@@ -8672,7 +8685,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>99</v>
       </c>
@@ -8686,7 +8699,7 @@
         <v>503</v>
       </c>
       <c r="F160" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G160">
         <v>381028</v>
@@ -8704,7 +8717,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>103</v>
       </c>
@@ -8712,13 +8725,13 @@
         <v>658</v>
       </c>
       <c r="C161" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="E161" t="s">
         <v>502</v>
       </c>
       <c r="F161" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G161">
         <v>382917</v>
@@ -8736,7 +8749,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>45</v>
       </c>
@@ -8750,7 +8763,7 @@
         <v>503</v>
       </c>
       <c r="F162" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G162">
         <v>380528</v>
@@ -8768,7 +8781,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>46</v>
       </c>
@@ -8776,13 +8789,13 @@
         <v>46</v>
       </c>
       <c r="C163" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="E163" t="s">
         <v>503</v>
       </c>
       <c r="F163" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G163">
         <v>380529</v>
@@ -8800,7 +8813,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>47</v>
       </c>
@@ -8814,7 +8827,7 @@
         <v>503</v>
       </c>
       <c r="F164" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G164">
         <v>380530</v>
@@ -8832,7 +8845,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>107</v>
       </c>
@@ -8846,7 +8859,7 @@
         <v>503</v>
       </c>
       <c r="F165" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G165">
         <v>385002</v>
@@ -8864,7 +8877,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>106</v>
       </c>
@@ -8878,7 +8891,7 @@
         <v>503</v>
       </c>
       <c r="F166" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G166">
         <v>385001</v>
@@ -8896,7 +8909,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>48</v>
       </c>
@@ -8910,7 +8923,7 @@
         <v>503</v>
       </c>
       <c r="F167" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G167">
         <v>380531</v>
@@ -8928,7 +8941,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>49</v>
       </c>
@@ -8942,7 +8955,7 @@
         <v>503</v>
       </c>
       <c r="F168" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G168">
         <v>380532</v>
@@ -8960,7 +8973,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>55</v>
       </c>
@@ -8974,7 +8987,7 @@
         <v>503</v>
       </c>
       <c r="F169" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G169">
         <v>380541</v>
@@ -8992,7 +9005,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>60</v>
       </c>
@@ -9006,7 +9019,7 @@
         <v>501</v>
       </c>
       <c r="F170" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G170">
         <v>380546</v>
@@ -9024,7 +9037,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>62</v>
       </c>
@@ -9038,7 +9051,7 @@
         <v>503</v>
       </c>
       <c r="F171" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G171">
         <v>380548</v>
@@ -9056,7 +9069,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>65</v>
       </c>
@@ -9064,16 +9077,16 @@
         <v>65</v>
       </c>
       <c r="C172" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="D172" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="E172" t="s">
         <v>503</v>
       </c>
       <c r="F172" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G172">
         <v>380551</v>
@@ -9091,7 +9104,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -9105,7 +9118,7 @@
         <v>501</v>
       </c>
       <c r="F173" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G173">
         <v>1023581</v>
@@ -9121,7 +9134,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>214</v>
       </c>
@@ -9135,7 +9148,7 @@
         <v>501</v>
       </c>
       <c r="F174" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G174">
         <v>1024993</v>
@@ -9151,7 +9164,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>143</v>
       </c>
@@ -9165,7 +9178,7 @@
         <v>501</v>
       </c>
       <c r="F175" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G175">
         <v>419698</v>
@@ -9183,7 +9196,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>236</v>
       </c>
@@ -9191,16 +9204,16 @@
         <v>236</v>
       </c>
       <c r="C176" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="D176" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="E176" t="s">
         <v>501</v>
       </c>
       <c r="F176" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G176">
         <v>1025543</v>
@@ -9216,7 +9229,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>237</v>
       </c>
@@ -9230,7 +9243,7 @@
         <v>501</v>
       </c>
       <c r="F177" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G177">
         <v>1025545</v>
@@ -9246,7 +9259,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>238</v>
       </c>
@@ -9260,7 +9273,7 @@
         <v>501</v>
       </c>
       <c r="F178" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G178">
         <v>1025547</v>
@@ -9276,7 +9289,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>243</v>
       </c>
@@ -9290,7 +9303,7 @@
         <v>501</v>
       </c>
       <c r="F179" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G179">
         <v>1025652</v>
@@ -9306,7 +9319,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>144</v>
       </c>
@@ -9320,7 +9333,7 @@
         <v>503</v>
       </c>
       <c r="F180" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G180">
         <v>419712</v>
@@ -9338,7 +9351,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>116</v>
       </c>
@@ -9352,7 +9365,7 @@
         <v>503</v>
       </c>
       <c r="F181" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G181">
         <v>404624</v>
@@ -9370,7 +9383,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>117</v>
       </c>
@@ -9384,7 +9397,7 @@
         <v>503</v>
       </c>
       <c r="F182" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G182">
         <v>404630</v>
@@ -9402,7 +9415,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>118</v>
       </c>
@@ -9416,7 +9429,7 @@
         <v>503</v>
       </c>
       <c r="F183" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G183">
         <v>404632</v>
@@ -9434,7 +9447,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>75</v>
       </c>
@@ -9448,7 +9461,7 @@
         <v>503</v>
       </c>
       <c r="F184" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G184">
         <v>380614</v>
@@ -9466,7 +9479,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>76</v>
       </c>
@@ -9480,7 +9493,7 @@
         <v>503</v>
       </c>
       <c r="F185" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G185">
         <v>380615</v>
@@ -9498,7 +9511,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>77</v>
       </c>
@@ -9512,7 +9525,7 @@
         <v>503</v>
       </c>
       <c r="F186" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G186">
         <v>380616</v>
@@ -9530,7 +9543,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>78</v>
       </c>
@@ -9544,7 +9557,7 @@
         <v>503</v>
       </c>
       <c r="F187" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G187">
         <v>380617</v>
@@ -9562,7 +9575,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>79</v>
       </c>
@@ -9570,16 +9583,16 @@
         <v>79</v>
       </c>
       <c r="C188" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="D188" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="E188" t="s">
         <v>503</v>
       </c>
       <c r="F188" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G188">
         <v>380618</v>
@@ -9597,7 +9610,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>100</v>
       </c>
@@ -9605,16 +9618,16 @@
         <v>100</v>
       </c>
       <c r="C189" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="D189" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="E189" t="s">
         <v>501</v>
       </c>
       <c r="F189" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G189">
         <v>381941</v>
@@ -9632,7 +9645,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>101</v>
       </c>
@@ -9640,16 +9653,16 @@
         <v>101</v>
       </c>
       <c r="C190" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="D190" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="E190" t="s">
         <v>501</v>
       </c>
       <c r="F190" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G190">
         <v>382434</v>
@@ -9667,9 +9680,9 @@
         <v>654</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>516</v>
@@ -9682,7 +9695,7 @@
         <v>501</v>
       </c>
       <c r="F191" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G191" s="2">
         <v>380102</v>
@@ -9700,7 +9713,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>15</v>
       </c>
@@ -9708,13 +9721,13 @@
         <v>659</v>
       </c>
       <c r="C192" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="E192" t="s">
         <v>503</v>
       </c>
       <c r="F192" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G192" s="3">
         <v>380104</v>
@@ -9732,7 +9745,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>32</v>
       </c>
@@ -9740,16 +9753,16 @@
         <v>32</v>
       </c>
       <c r="C193" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="D193" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="E193" t="s">
         <v>501</v>
       </c>
       <c r="F193" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G193" s="3">
         <v>380291</v>
@@ -9767,9 +9780,9 @@
         <v>661</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>516</v>
@@ -9782,7 +9795,7 @@
         <v>501</v>
       </c>
       <c r="F194" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G194" s="2">
         <v>380534</v>
@@ -9800,9 +9813,9 @@
         <v>677</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>516</v>
@@ -9815,7 +9828,7 @@
         <v>501</v>
       </c>
       <c r="F195" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G195" s="2">
         <v>380535</v>
@@ -9833,7 +9846,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>50</v>
       </c>
@@ -9848,7 +9861,7 @@
         <v>501</v>
       </c>
       <c r="F196" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G196" s="2">
         <v>380536</v>
@@ -9866,7 +9879,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>51</v>
       </c>
@@ -9881,7 +9894,7 @@
         <v>501</v>
       </c>
       <c r="F197" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G197" s="2">
         <v>380537</v>
@@ -9899,7 +9912,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>52</v>
       </c>
@@ -9914,7 +9927,7 @@
         <v>501</v>
       </c>
       <c r="F198" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G198" s="2">
         <v>380538</v>
@@ -9932,7 +9945,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>53</v>
       </c>
@@ -9947,7 +9960,7 @@
         <v>501</v>
       </c>
       <c r="F199" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G199" s="2">
         <v>380539</v>
@@ -9965,7 +9978,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>54</v>
       </c>
@@ -9980,7 +9993,7 @@
         <v>501</v>
       </c>
       <c r="F200" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G200" s="2">
         <v>380540</v>
@@ -9998,7 +10011,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>56</v>
       </c>
@@ -10013,7 +10026,7 @@
         <v>501</v>
       </c>
       <c r="F201" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G201" s="2">
         <v>380542</v>
@@ -10031,7 +10044,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>57</v>
       </c>
@@ -10046,7 +10059,7 @@
         <v>501</v>
       </c>
       <c r="F202" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G202" s="2">
         <v>380543</v>
@@ -10064,7 +10077,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>58</v>
       </c>
@@ -10079,7 +10092,7 @@
         <v>501</v>
       </c>
       <c r="F203" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G203" s="2">
         <v>380544</v>
@@ -10097,7 +10110,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>59</v>
       </c>
@@ -10112,7 +10125,7 @@
         <v>501</v>
       </c>
       <c r="F204" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G204" s="2">
         <v>380545</v>
@@ -10130,7 +10143,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>61</v>
       </c>
@@ -10138,14 +10151,14 @@
         <v>662</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="D205" s="7"/>
       <c r="E205" s="7" t="s">
         <v>501</v>
       </c>
       <c r="F205" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G205" s="4">
         <v>380547</v>
@@ -10163,7 +10176,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>63</v>
       </c>
@@ -10178,7 +10191,7 @@
         <v>501</v>
       </c>
       <c r="F206" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G206" s="2">
         <v>380549</v>
@@ -10196,7 +10209,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>64</v>
       </c>
@@ -10211,7 +10224,7 @@
         <v>501</v>
       </c>
       <c r="F207" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G207" s="2">
         <v>380550</v>
@@ -10229,7 +10242,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>66</v>
       </c>
@@ -10237,13 +10250,13 @@
         <v>663</v>
       </c>
       <c r="C208" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="E208" t="s">
         <v>503</v>
       </c>
       <c r="F208" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G208" s="3">
         <v>380552</v>
@@ -10261,7 +10274,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>67</v>
       </c>
@@ -10276,7 +10289,7 @@
         <v>501</v>
       </c>
       <c r="F209" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G209" s="2">
         <v>380554</v>
@@ -10294,7 +10307,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>68</v>
       </c>
@@ -10309,7 +10322,7 @@
         <v>501</v>
       </c>
       <c r="F210" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G210" s="2">
         <v>380555</v>
@@ -10327,7 +10340,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>69</v>
       </c>
@@ -10342,7 +10355,7 @@
         <v>501</v>
       </c>
       <c r="F211" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G211" s="2">
         <v>380556</v>
@@ -10360,7 +10373,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>85</v>
       </c>
@@ -10368,13 +10381,13 @@
         <v>665</v>
       </c>
       <c r="C212" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="E212" t="s">
         <v>502</v>
       </c>
       <c r="F212" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G212" s="3">
         <v>380643</v>
@@ -10392,7 +10405,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>102</v>
       </c>
@@ -10406,7 +10419,7 @@
         <v>503</v>
       </c>
       <c r="F213" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G213" s="3">
         <v>382788</v>
@@ -10424,7 +10437,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>105</v>
       </c>
@@ -10439,7 +10452,7 @@
         <v>501</v>
       </c>
       <c r="F214" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G214" s="2">
         <v>385000</v>
@@ -10457,7 +10470,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>108</v>
       </c>
@@ -10472,7 +10485,7 @@
         <v>501</v>
       </c>
       <c r="F215" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G215" s="2">
         <v>385003</v>
@@ -10490,7 +10503,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>110</v>
       </c>
@@ -10505,7 +10518,7 @@
         <v>501</v>
       </c>
       <c r="F216" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G216" s="2">
         <v>404551</v>
@@ -10523,7 +10536,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>113</v>
       </c>
@@ -10538,7 +10551,7 @@
         <v>501</v>
       </c>
       <c r="F217" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G217" s="2">
         <v>404587</v>
@@ -10556,7 +10569,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>114</v>
       </c>
@@ -10571,7 +10584,7 @@
         <v>501</v>
       </c>
       <c r="F218" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G218" s="2">
         <v>404588</v>
@@ -10589,7 +10602,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>123</v>
       </c>
@@ -10597,13 +10610,13 @@
         <v>667</v>
       </c>
       <c r="C219" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="E219" t="s">
         <v>503</v>
       </c>
       <c r="F219" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G219" s="3">
         <v>416107</v>
@@ -10621,7 +10634,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>124</v>
       </c>
@@ -10636,7 +10649,7 @@
         <v>501</v>
       </c>
       <c r="F220" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G220" s="2">
         <v>416110</v>
@@ -10654,7 +10667,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>128</v>
       </c>
@@ -10669,7 +10682,7 @@
         <v>501</v>
       </c>
       <c r="F221" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G221" s="2">
         <v>417722</v>
@@ -10687,7 +10700,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>130</v>
       </c>
@@ -10695,13 +10708,13 @@
         <v>670</v>
       </c>
       <c r="C222" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="E222" t="s">
         <v>501</v>
       </c>
       <c r="F222" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G222" s="3">
         <v>417867</v>
@@ -10719,7 +10732,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>133</v>
       </c>
@@ -10734,7 +10747,7 @@
         <v>501</v>
       </c>
       <c r="F223" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G223" s="2">
         <v>418130</v>
@@ -10752,7 +10765,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>141</v>
       </c>
@@ -10767,7 +10780,7 @@
         <v>501</v>
       </c>
       <c r="F224" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G224" s="2">
         <v>419631</v>
@@ -10785,7 +10798,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>146</v>
       </c>
@@ -10800,7 +10813,7 @@
         <v>501</v>
       </c>
       <c r="F225" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G225" s="2">
         <v>420877</v>
@@ -10818,7 +10831,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>151</v>
       </c>
@@ -10833,7 +10846,7 @@
         <v>501</v>
       </c>
       <c r="F226" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G226" s="2">
         <v>427142</v>
@@ -10851,7 +10864,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>154</v>
       </c>
@@ -10866,7 +10879,7 @@
         <v>501</v>
       </c>
       <c r="F227" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G227" s="2">
         <v>427287</v>
@@ -10884,7 +10897,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>155</v>
       </c>
@@ -10899,7 +10912,7 @@
         <v>501</v>
       </c>
       <c r="F228" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G228" s="2">
         <v>428071</v>
@@ -10917,7 +10930,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>156</v>
       </c>
@@ -10925,14 +10938,14 @@
         <v>669</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="D229" s="7"/>
       <c r="E229" s="7" t="s">
         <v>501</v>
       </c>
       <c r="F229" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G229" s="4">
         <v>428564</v>
@@ -10950,7 +10963,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>157</v>
       </c>
@@ -10958,13 +10971,13 @@
         <v>672</v>
       </c>
       <c r="C230" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="E230" t="s">
         <v>503</v>
       </c>
       <c r="F230" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G230" s="3">
         <v>428568</v>
@@ -10982,7 +10995,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>160</v>
       </c>
@@ -10997,7 +11010,7 @@
         <v>501</v>
       </c>
       <c r="F231" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G231" s="2">
         <v>430503</v>
@@ -11015,7 +11028,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>161</v>
       </c>
@@ -11023,16 +11036,16 @@
         <v>671</v>
       </c>
       <c r="C232" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D232" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="E232" t="s">
         <v>501</v>
       </c>
       <c r="F232" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G232" s="3">
         <v>431229</v>
@@ -11050,7 +11063,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>162</v>
       </c>
@@ -11065,7 +11078,7 @@
         <v>501</v>
       </c>
       <c r="F233" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G233" s="2">
         <v>432102</v>
@@ -11083,7 +11096,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>164</v>
       </c>
@@ -11091,13 +11104,13 @@
         <v>673</v>
       </c>
       <c r="C234" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="E234" t="s">
         <v>503</v>
       </c>
       <c r="F234" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G234" s="3">
         <v>432194</v>
@@ -11115,7 +11128,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>165</v>
       </c>
@@ -11123,13 +11136,13 @@
         <v>674</v>
       </c>
       <c r="C235" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="E235" t="s">
         <v>503</v>
       </c>
       <c r="F235" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G235" s="3">
         <v>432195</v>
@@ -11147,7 +11160,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>167</v>
       </c>
@@ -11155,14 +11168,14 @@
         <v>675</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="D236" s="7"/>
       <c r="E236" s="7" t="s">
         <v>501</v>
       </c>
       <c r="F236" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G236" s="4">
         <v>432368</v>
@@ -11180,9 +11193,9 @@
         <v>654</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="B237" s="7" t="s">
         <v>516</v>
@@ -11195,7 +11208,7 @@
         <v>501</v>
       </c>
       <c r="F237" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G237" s="2">
         <v>1023421</v>
@@ -11211,7 +11224,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>168</v>
       </c>
@@ -11226,7 +11239,7 @@
         <v>501</v>
       </c>
       <c r="F238" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G238" s="2">
         <v>1023422</v>
@@ -11242,7 +11255,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>175</v>
       </c>
@@ -11257,7 +11270,7 @@
         <v>501</v>
       </c>
       <c r="F239" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G239" s="2">
         <v>1023625</v>
@@ -11273,7 +11286,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>178</v>
       </c>
@@ -11288,7 +11301,7 @@
         <v>501</v>
       </c>
       <c r="F240" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G240" s="2">
         <v>1023666</v>
@@ -11304,7 +11317,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>179</v>
       </c>
@@ -11319,7 +11332,7 @@
         <v>501</v>
       </c>
       <c r="F241" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G241" s="2">
         <v>1023692</v>
@@ -11335,7 +11348,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>180</v>
       </c>
@@ -11350,7 +11363,7 @@
         <v>501</v>
       </c>
       <c r="F242" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G242" s="2">
         <v>1023759</v>
@@ -11366,7 +11379,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>181</v>
       </c>
@@ -11381,7 +11394,7 @@
         <v>501</v>
       </c>
       <c r="F243" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G243" s="2">
         <v>1023768</v>
@@ -11397,7 +11410,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>182</v>
       </c>
@@ -11412,7 +11425,7 @@
         <v>501</v>
       </c>
       <c r="F244" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G244" s="2">
         <v>1023769</v>
@@ -11428,7 +11441,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>192</v>
       </c>
@@ -11443,7 +11456,7 @@
         <v>501</v>
       </c>
       <c r="F245" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G245" s="2">
         <v>1024353</v>
@@ -11459,7 +11472,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>198</v>
       </c>
@@ -11474,7 +11487,7 @@
         <v>501</v>
       </c>
       <c r="F246" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G246" s="2">
         <v>1024454</v>
@@ -11490,27 +11503,27 @@
         <v>677</v>
       </c>
     </row>
-    <row r="247" spans="1:11" s="7" customFormat="1">
+    <row r="247" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="E247" s="7" t="s">
         <v>501</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G247" s="7">
         <v>1024552</v>
       </c>
       <c r="H247" s="8"/>
-      <c r="I247" s="12" t="s">
+      <c r="I247" s="10" t="s">
         <v>449</v>
       </c>
       <c r="J247" s="7">
@@ -11520,40 +11533,40 @@
         <v>677</v>
       </c>
     </row>
-    <row r="248" spans="1:11" s="7" customFormat="1">
+    <row r="248" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="E248" s="7" t="s">
         <v>501</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G248" s="7">
         <v>1024731</v>
       </c>
       <c r="H248" s="8"/>
-      <c r="I248" s="12" t="s">
+      <c r="I248" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="J248" s="13">
+      <c r="J248" s="11">
         <v>188</v>
       </c>
       <c r="K248" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>208</v>
       </c>
@@ -11568,7 +11581,7 @@
         <v>502</v>
       </c>
       <c r="F249" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G249" s="2">
         <v>1024853</v>
@@ -11584,7 +11597,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="250" spans="1:11" s="7" customFormat="1">
+    <row r="250" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>217</v>
       </c>
@@ -11592,16 +11605,16 @@
         <v>676</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="E250" s="7" t="s">
         <v>502</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G250" s="7">
         <v>1025024</v>
@@ -11617,795 +11630,795 @@
         <v>654</v>
       </c>
     </row>
-    <row r="251" spans="1:11" s="7" customFormat="1">
+    <row r="251" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>218</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="E251" s="7" t="s">
         <v>501</v>
       </c>
       <c r="F251" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G251" s="7">
         <v>1025027</v>
       </c>
       <c r="H251" s="8"/>
-      <c r="I251" s="12" t="s">
+      <c r="I251" s="10" t="s">
         <v>468</v>
       </c>
       <c r="J251" s="7">
         <v>576</v>
       </c>
       <c r="K251" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" s="7" customFormat="1">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>233</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="E252" s="7" t="s">
         <v>503</v>
       </c>
       <c r="F252" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G252" s="7">
         <v>1025365</v>
       </c>
       <c r="H252" s="8"/>
-      <c r="I252" s="12" t="s">
+      <c r="I252" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="J252" s="13">
+      <c r="J252" s="11">
         <v>142</v>
       </c>
       <c r="K252" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" s="7" customFormat="1">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="E253" s="7" t="s">
         <v>502</v>
       </c>
       <c r="F253" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G253" s="7">
         <v>1025423</v>
       </c>
       <c r="H253" s="8"/>
-      <c r="I253" s="12" t="s">
+      <c r="I253" s="10" t="s">
         <v>484</v>
       </c>
       <c r="J253" s="7">
         <v>62</v>
       </c>
       <c r="K253" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B254" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="C254" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="E254" t="s">
         <v>501</v>
       </c>
       <c r="F254" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G254">
         <v>330463</v>
       </c>
       <c r="I254" t="s">
-        <v>740</v>
-      </c>
-      <c r="J254" s="13">
+        <v>733</v>
+      </c>
+      <c r="J254" s="11">
         <v>838</v>
       </c>
       <c r="K254" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="255" spans="1:11" s="7" customFormat="1">
+    <row r="255" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="E255" s="7" t="s">
         <v>502</v>
       </c>
       <c r="F255" s="7" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G255" s="7">
         <v>402472</v>
       </c>
       <c r="I255" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="J255" s="13">
+        <v>728</v>
+      </c>
+      <c r="J255" s="11">
         <v>839</v>
       </c>
       <c r="K255" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="B256" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="C256" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="E256" t="s">
         <v>501</v>
       </c>
       <c r="F256" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G256">
         <v>428420</v>
       </c>
       <c r="I256" t="s">
-        <v>741</v>
-      </c>
-      <c r="J256" s="13">
+        <v>734</v>
+      </c>
+      <c r="J256" s="11">
         <v>840</v>
       </c>
       <c r="K256" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="B257" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="C257" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="E257" t="s">
         <v>501</v>
       </c>
       <c r="F257" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G257">
         <v>333006</v>
       </c>
       <c r="I257" t="s">
-        <v>742</v>
-      </c>
-      <c r="J257" s="13">
+        <v>735</v>
+      </c>
+      <c r="J257" s="11">
         <v>841</v>
       </c>
       <c r="K257" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B258" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="C258" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="E258" t="s">
         <v>501</v>
       </c>
       <c r="F258" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G258">
         <v>1025053</v>
       </c>
       <c r="I258" t="s">
-        <v>745</v>
-      </c>
-      <c r="J258" s="13">
+        <v>738</v>
+      </c>
+      <c r="J258" s="11">
         <v>842</v>
       </c>
       <c r="K258" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="B259" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="C259" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="E259" t="s">
         <v>501</v>
       </c>
       <c r="F259" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G259">
         <v>1025054</v>
       </c>
       <c r="I259" t="s">
-        <v>750</v>
-      </c>
-      <c r="J259" s="13">
+        <v>743</v>
+      </c>
+      <c r="J259" s="11">
         <v>843</v>
       </c>
       <c r="K259" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="260" spans="1:11">
-      <c r="A260" t="s">
-        <v>751</v>
-      </c>
       <c r="B260" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="C260" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="E260" t="s">
         <v>501</v>
       </c>
       <c r="F260" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G260">
         <v>333008</v>
       </c>
       <c r="I260" t="s">
-        <v>753</v>
-      </c>
-      <c r="J260" s="13">
+        <v>746</v>
+      </c>
+      <c r="J260" s="11">
         <v>844</v>
       </c>
       <c r="K260" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B261" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C261" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E261" t="s">
         <v>501</v>
       </c>
       <c r="F261" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G261">
         <v>333012</v>
       </c>
       <c r="I261" t="s">
-        <v>755</v>
-      </c>
-      <c r="J261" s="13">
+        <v>748</v>
+      </c>
+      <c r="J261" s="11">
         <v>845</v>
       </c>
       <c r="K261" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="B262" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="C262" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="D262" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="E262" t="s">
         <v>501</v>
       </c>
       <c r="F262" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G262">
         <v>333223</v>
       </c>
       <c r="I262" t="s">
-        <v>758</v>
-      </c>
-      <c r="J262" s="13">
+        <v>751</v>
+      </c>
+      <c r="J262" s="11">
         <v>846</v>
       </c>
       <c r="K262" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="B263" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="C263" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E263" t="s">
         <v>501</v>
       </c>
       <c r="F263" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G263">
         <v>427562</v>
       </c>
       <c r="I263" t="s">
-        <v>761</v>
-      </c>
-      <c r="J263" s="13">
+        <v>754</v>
+      </c>
+      <c r="J263" s="11">
         <v>847</v>
       </c>
       <c r="K263" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B264" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="C264" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="E264" t="s">
         <v>501</v>
       </c>
       <c r="F264" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G264">
         <v>333826</v>
       </c>
       <c r="I264" t="s">
-        <v>763</v>
-      </c>
-      <c r="J264" s="13">
+        <v>756</v>
+      </c>
+      <c r="J264" s="11">
         <v>848</v>
       </c>
       <c r="K264" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B265" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="C265" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E265" t="s">
         <v>502</v>
       </c>
       <c r="F265" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G265">
         <v>1024170</v>
       </c>
       <c r="I265" t="s">
-        <v>765</v>
-      </c>
-      <c r="J265" s="13">
+        <v>758</v>
+      </c>
+      <c r="J265" s="11">
         <v>849</v>
       </c>
       <c r="K265" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B266" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C266" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="E266" t="s">
         <v>501</v>
       </c>
       <c r="F266" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G266">
         <v>333944</v>
       </c>
       <c r="I266" t="s">
-        <v>768</v>
-      </c>
-      <c r="J266" s="13">
+        <v>761</v>
+      </c>
+      <c r="J266" s="11">
         <v>850</v>
       </c>
       <c r="K266" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="B267" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="C267" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="E267" t="s">
         <v>502</v>
       </c>
       <c r="F267" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G267">
         <v>334538</v>
       </c>
       <c r="I267" t="s">
-        <v>771</v>
-      </c>
-      <c r="J267" s="13">
+        <v>764</v>
+      </c>
+      <c r="J267" s="11">
         <v>851</v>
       </c>
       <c r="K267" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="B268" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="C268" t="s">
+        <v>722</v>
+      </c>
+      <c r="E268" t="s">
+        <v>501</v>
+      </c>
+      <c r="F268" t="s">
         <v>729</v>
-      </c>
-      <c r="E268" t="s">
-        <v>501</v>
-      </c>
-      <c r="F268" t="s">
-        <v>736</v>
       </c>
       <c r="G268">
         <v>330019</v>
       </c>
       <c r="I268" t="s">
-        <v>773</v>
-      </c>
-      <c r="J268" s="13">
+        <v>766</v>
+      </c>
+      <c r="J268" s="11">
         <v>852</v>
       </c>
       <c r="K268" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="B269" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="C269" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="E269" t="s">
         <v>503</v>
       </c>
       <c r="F269" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G269">
         <v>1025431</v>
       </c>
       <c r="I269" t="s">
-        <v>775</v>
-      </c>
-      <c r="J269" s="13">
+        <v>768</v>
+      </c>
+      <c r="J269" s="11">
         <v>853</v>
       </c>
       <c r="K269" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="B270" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="C270" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E270" t="s">
         <v>503</v>
       </c>
       <c r="F270" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G270">
         <v>431361</v>
       </c>
       <c r="I270" t="s">
-        <v>776</v>
-      </c>
-      <c r="J270" s="13">
+        <v>769</v>
+      </c>
+      <c r="J270" s="11">
         <v>854</v>
       </c>
       <c r="K270" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B271" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="C271" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="E271" t="s">
         <v>502</v>
       </c>
       <c r="F271" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G271">
         <v>347270</v>
       </c>
       <c r="I271" t="s">
-        <v>780</v>
-      </c>
-      <c r="J271" s="13">
+        <v>773</v>
+      </c>
+      <c r="J271" s="11">
         <v>855</v>
       </c>
       <c r="K271" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="B272" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="C272" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="E272" t="s">
         <v>502</v>
       </c>
       <c r="F272" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G272">
         <v>1025716</v>
       </c>
       <c r="I272" t="s">
-        <v>782</v>
-      </c>
-      <c r="J272" s="13">
+        <v>775</v>
+      </c>
+      <c r="J272" s="11">
         <v>859</v>
       </c>
       <c r="K272" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="B273" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="C273" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="E273" t="s">
         <v>503</v>
       </c>
       <c r="F273" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G273">
         <v>1025717</v>
       </c>
       <c r="I273" t="s">
-        <v>784</v>
-      </c>
-      <c r="J273" s="13">
+        <v>777</v>
+      </c>
+      <c r="J273" s="11">
         <v>860</v>
       </c>
       <c r="K273" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="B274" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="C274" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="E274" t="s">
         <v>501</v>
       </c>
       <c r="F274" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G274">
         <v>427215</v>
       </c>
       <c r="I274" t="s">
-        <v>787</v>
-      </c>
-      <c r="J274" s="13">
+        <v>780</v>
+      </c>
+      <c r="J274" s="11">
         <v>861</v>
       </c>
       <c r="K274" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B275" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="C275" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="E275" t="s">
         <v>502</v>
       </c>
       <c r="F275" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G275">
         <v>404411</v>
       </c>
       <c r="I275" t="s">
-        <v>789</v>
-      </c>
-      <c r="J275" s="13">
+        <v>782</v>
+      </c>
+      <c r="J275" s="11">
         <v>862</v>
       </c>
       <c r="K275" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B276" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C276" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="E276" t="s">
         <v>501</v>
       </c>
       <c r="F276" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G276">
         <v>1024744</v>
       </c>
       <c r="I276" t="s">
-        <v>790</v>
-      </c>
-      <c r="J276" s="13">
+        <v>783</v>
+      </c>
+      <c r="J276" s="11">
         <v>863</v>
       </c>
       <c r="K276" s="7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="B277" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="C277" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="D277" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="E277" t="s">
         <v>501</v>
       </c>
       <c r="F277" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G277">
         <v>310883</v>
       </c>
       <c r="I277" t="s">
-        <v>792</v>
-      </c>
-      <c r="J277" s="13">
+        <v>785</v>
+      </c>
+      <c r="J277" s="11">
         <v>864</v>
       </c>
       <c r="K277" s="7" t="s">
